--- a/public/assets/excel/template_data_pengguna.xlsx
+++ b/public/assets/excel/template_data_pengguna.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PBL-Fasilita\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7478FBEC-2C75-4E41-B204-5413C1E1359B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD82DABF-B616-4DE3-928C-F93EA57DB035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id_peran</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Nadya Siva</t>
+  </si>
+  <si>
+    <t>nomor induk</t>
+  </si>
+  <si>
+    <t>198311052003101000</t>
+  </si>
+  <si>
+    <t>195912312010123890</t>
   </si>
 </sst>
 </file>
@@ -84,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,58 +376,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12345</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>12345</v>
       </c>
     </row>

--- a/public/assets/excel/template_data_pengguna.xlsx
+++ b/public/assets/excel/template_data_pengguna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PBL-Fasilita\public\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD82DABF-B616-4DE3-928C-F93EA57DB035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616D1E30-0ACF-43AD-A0B3-D513BCBCD3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>nomor induk</t>
   </si>
   <si>
-    <t>198311052003101000</t>
-  </si>
-  <si>
-    <t>195912312010123890</t>
+    <t>198311052003101001</t>
+  </si>
+  <si>
+    <t>195912312010122890</t>
   </si>
 </sst>
 </file>
@@ -379,7 +379,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
